--- a/data/metadata/Informe-05-050308-A-TC-TP.xlsx
+++ b/data/metadata/Informe-05-050308-A-TC-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>ccaa-nombre</t>
   </si>
@@ -55,7 +55,7 @@
     <t>iaest-measure:mes-y-ano</t>
   </si>
   <si>
-    <t>iaest-dimension:mes-nombre</t>
+    <t>iaest-measure:mes-nombre</t>
   </si>
   <si>
     <t>sdmx-dimension:refPeriod</t>
@@ -70,10 +70,10 @@
     <t>sdmx-dimension:refArea</t>
   </si>
   <si>
-    <t>iaest-dimension:sexo</t>
-  </si>
-  <si>
-    <t>iaest-dimension:numero-trabajadores-cc</t>
+    <t>iaest-measure:sexo</t>
+  </si>
+  <si>
+    <t>iaest-measure:numero-trabajadores-cc</t>
   </si>
   <si>
     <t>dim</t>
@@ -97,16 +97,7 @@
     <t>mapping-ccaa-nombre.xlsx</t>
   </si>
   <si>
-    <t>mapping-mes-nombre.xlsx</t>
-  </si>
-  <si>
     <t>mapping-ano.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-sexo.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-numero-trabajadores-cc.xlsx</t>
   </si>
 </sst>
 </file>
@@ -250,7 +241,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>21</v>
@@ -268,10 +259,10 @@
         <v>21</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>17</v>
@@ -288,7 +279,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>23</v>
@@ -306,10 +297,10 @@
         <v>25</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>17</v>
@@ -322,17 +313,8 @@
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-05-050308-A-TC-TP.xlsx
+++ b/data/metadata/Informe-05-050308-A-TC-TP.xlsx
@@ -11,78 +11,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
-  <si>
-    <t>ccaa-nombre</t>
-  </si>
-  <si>
-    <t>mes-y-ano</t>
-  </si>
-  <si>
-    <t>mes-nombre</t>
-  </si>
-  <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>numero-de-contratos</t>
-  </si>
-  <si>
-    <t>mes-codigo</t>
-  </si>
-  <si>
-    <t>comarca-codigo</t>
-  </si>
-  <si>
-    <t>provincia-nombre</t>
-  </si>
-  <si>
-    <t>sexo</t>
-  </si>
-  <si>
-    <t>numero-trabajadores-cc</t>
-  </si>
-  <si>
-    <t>provincia-codigo</t>
-  </si>
-  <si>
-    <t>comarca-nombre</t>
-  </si>
-  <si>
-    <t>iaest-dimension:ccaa-nombre</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
+  <si>
+    <t>Mes (código)</t>
+  </si>
+  <si>
+    <t>CCAA nombre</t>
+  </si>
+  <si>
+    <t>Comarca nombre</t>
+  </si>
+  <si>
+    <t>Mes nombre</t>
+  </si>
+  <si>
+    <t>Comarca código</t>
+  </si>
+  <si>
+    <t>Número trabajadores (CC)</t>
+  </si>
+  <si>
+    <t>Número de contratos</t>
+  </si>
+  <si>
+    <t>Provincia código</t>
+  </si>
+  <si>
+    <t>Provincia nombre</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Mes y año</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refArea</t>
+  </si>
+  <si>
+    <t>iaest-measure:mes-nombre</t>
+  </si>
+  <si>
+    <t>iaest-measure:numero-trabajadores-cc</t>
+  </si>
+  <si>
+    <t>iaest-measure:numero-de-contratos</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refPeriod</t>
+  </si>
+  <si>
+    <t>iaest-measure:sexo</t>
   </si>
   <si>
     <t>iaest-measure:mes-y-ano</t>
   </si>
   <si>
-    <t>iaest-measure:mes-nombre</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refPeriod</t>
-  </si>
-  <si>
-    <t>iaest-measure:numero-de-contratos</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
-    <t>iaest-measure:sexo</t>
-  </si>
-  <si>
-    <t>iaest-measure:numero-trabajadores-cc</t>
-  </si>
-  <si>
     <t>dim</t>
   </si>
   <si>
     <t>medida</t>
   </si>
   <si>
-    <t>skos:Concept</t>
+    <t>URI-Comunidad</t>
+  </si>
+  <si>
+    <t>URI-comarca</t>
+  </si>
+  <si>
+    <t>xsd:string</t>
   </si>
   <si>
     <t>xsd:int</t>
@@ -91,10 +94,7 @@
     <t>URI-Provincia</t>
   </si>
   <si>
-    <t>URI-comarca</t>
-  </si>
-  <si>
-    <t>mapping-ccaa-nombre.xlsx</t>
+    <t>xsd:date</t>
   </si>
   <si>
     <t>mapping-ano.xlsx</t>
@@ -203,69 +203,69 @@
         <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>21</v>
@@ -273,47 +273,44 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>28</v>
       </c>
     </row>

--- a/data/metadata/Informe-05-050308-A-TC-TP.xlsx
+++ b/data/metadata/Informe-05-050308-A-TC-TP.xlsx
@@ -1,157 +1,194 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Informe-05-050308-A-TC-TP" sheetId="1" r:id="rId3"/>
+    <sheet name="Informe-05-050308-A-TC-TP" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
-    <t>CCAA nombre</t>
-  </si>
-  <si>
-    <t>Comarca nombre</t>
-  </si>
-  <si>
-    <t>Mes nombre</t>
-  </si>
-  <si>
-    <t>Comarca código</t>
-  </si>
-  <si>
-    <t>Número trabajadores (CC)</t>
-  </si>
-  <si>
-    <t>Número de contratos</t>
-  </si>
-  <si>
-    <t>Provincia código</t>
-  </si>
-  <si>
-    <t>Provincia nombre</t>
-  </si>
-  <si>
-    <t>Año</t>
-  </si>
-  <si>
-    <t>Sexo</t>
-  </si>
-  <si>
-    <t>Mes y año</t>
-  </si>
-  <si>
-    <t>Mes (código)</t>
-  </si>
-  <si>
-    <t>ccaa-nombre</t>
-  </si>
-  <si>
-    <t>comarca-nombre</t>
-  </si>
-  <si>
-    <t>mes-nombre</t>
-  </si>
-  <si>
-    <t>comarca-codigo</t>
-  </si>
-  <si>
-    <t>numero-trabajadores-cc</t>
-  </si>
-  <si>
-    <t>numero-de-contratos</t>
-  </si>
-  <si>
-    <t>provincia-codigo</t>
-  </si>
-  <si>
-    <t>provincia-nombre</t>
-  </si>
-  <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>sexo</t>
-  </si>
-  <si>
-    <t>mes-y-ano</t>
-  </si>
-  <si>
-    <t>mes-codigo</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
-    <t>iaest-dimension:mes-nombre</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>iaest-dimension:numero-trabajadores-cc</t>
-  </si>
-  <si>
-    <t>iaest-measure:numero-de-contratos</t>
-  </si>
-  <si>
-    <t>iaest-dimension:sexo</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refPeriod</t>
-  </si>
-  <si>
-    <t>dim</t>
-  </si>
-  <si>
-    <t>medida</t>
-  </si>
-  <si>
-    <t>URI-Comunidad</t>
-  </si>
-  <si>
-    <t>URI-comarca</t>
-  </si>
-  <si>
-    <t>skos:Concept</t>
-  </si>
-  <si>
-    <t>xsd:int</t>
-  </si>
-  <si>
-    <t>URI-Provincia</t>
-  </si>
-  <si>
-    <t>xsd:date</t>
-  </si>
-  <si>
-    <t>mapping-mes-nombre.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-numero-trabajadores-cc.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-sexo.xlsx</t>
+    <t xml:space="preserve">CCAA nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comarca nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mes nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comarca código</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número trabajadores (CC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de contratos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provincia código</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provincia nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Año</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sexo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mes y año</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mes (código)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ccaa-nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comarca-nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mes-nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comarca-codigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numero-trabajadores-cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numero-de-contratos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">provincia-codigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">provincia-nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sexo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mes-y-ano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mes-codigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdmx-dimension:refArea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-dimension:mes-nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-dimension:numero-trabajadores-cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-measure:numero-de-contratos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iaest-dimension:sexo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdmx-dimension:refPeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URI-Comunidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URI-comarca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skos:Concept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xsd:int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URI-Provincia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xsd:date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mapping-mes-nombre.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mapping-numero-trabajadores-cc.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mapping-sexo.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font/>
-    <font>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -159,48 +196,85 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3:K5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -238,7 +312,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -276,7 +350,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -307,14 +381,14 @@
       <c r="J3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>26</v>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -345,14 +419,14 @@
       <c r="J4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>26</v>
+      <c r="K4" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -383,14 +457,14 @@
       <c r="J5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>26</v>
+      <c r="K5" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="1" t="s">
         <v>39</v>
       </c>
@@ -402,6 +476,12 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>